--- a/TEST/SOBOL_BIG/7F_48_WELL_COMPLETE_FILLING_M9/tube_stock/0_tube_stock.xlsx
+++ b/TEST/SOBOL_BIG/7F_48_WELL_COMPLETE_FILLING_M9/tube_stock/0_tube_stock.xlsx
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>3331.6</v>
+        <v>1935.6</v>
       </c>
       <c r="D2" t="n">
-        <v>677.4</v>
+        <v>1747.6</v>
       </c>
       <c r="E2" t="n">
-        <v>4322.6</v>
+        <v>252.4</v>
       </c>
       <c r="F2" t="n">
-        <v>707.2</v>
+        <v>1050.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4292.8</v>
+        <v>949.9</v>
       </c>
       <c r="H2" t="n">
-        <v>802.2</v>
+        <v>1565.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4197.8</v>
+        <v>434.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4828.8</v>
+        <v>1219.1</v>
       </c>
       <c r="K2" t="n">
-        <v>171.2</v>
+        <v>780.9</v>
       </c>
       <c r="L2" t="n">
-        <v>4296.9</v>
+        <v>1461</v>
       </c>
       <c r="M2" t="n">
-        <v>703.1</v>
+        <v>539</v>
       </c>
       <c r="N2" t="n">
-        <v>2850.1</v>
+        <v>762.1</v>
       </c>
       <c r="O2" t="n">
-        <v>2149.9</v>
+        <v>1237.9</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3051.3</v>
+        <v>856.9</v>
       </c>
       <c r="C3" t="n">
-        <v>1948.7</v>
+        <v>1143.1</v>
       </c>
       <c r="D3" t="n">
-        <v>473.6</v>
+        <v>1130.9</v>
       </c>
       <c r="E3" t="n">
-        <v>4526.4</v>
+        <v>869.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3345.2</v>
+        <v>760.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1654.8</v>
+        <v>1239.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3508.4</v>
+        <v>99.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1491.6</v>
+        <v>1900.2</v>
       </c>
       <c r="J3" t="n">
-        <v>197</v>
+        <v>1540.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4803</v>
+        <v>459.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2195.2</v>
+        <v>1070</v>
       </c>
       <c r="M3" t="n">
-        <v>2804.8</v>
+        <v>930</v>
       </c>
       <c r="N3" t="n">
-        <v>3489</v>
+        <v>235</v>
       </c>
       <c r="O3" t="n">
-        <v>1511</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2142.3</v>
+        <v>1693.6</v>
       </c>
       <c r="C4" t="n">
-        <v>2857.7</v>
+        <v>306.4</v>
       </c>
       <c r="D4" t="n">
-        <v>2827.3</v>
+        <v>498.8</v>
       </c>
       <c r="E4" t="n">
-        <v>2172.7</v>
+        <v>1501.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1902.2</v>
+        <v>1747.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3097.8</v>
+        <v>252.3</v>
       </c>
       <c r="H4" t="n">
-        <v>249.6</v>
+        <v>174.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4750.4</v>
+        <v>1825.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3851.7</v>
+        <v>1075.7</v>
       </c>
       <c r="K4" t="n">
-        <v>1148.3</v>
+        <v>924.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2675</v>
+        <v>469.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2325</v>
+        <v>1530.5</v>
       </c>
       <c r="N4" t="n">
-        <v>587.5</v>
+        <v>1324.2</v>
       </c>
       <c r="O4" t="n">
-        <v>4412.5</v>
+        <v>675.8</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3698</v>
+        <v>1750.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1302</v>
+        <v>249.8</v>
       </c>
       <c r="D5" t="n">
-        <v>2200.5</v>
+        <v>1107.2</v>
       </c>
       <c r="E5" t="n">
-        <v>2799.5</v>
+        <v>892.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1108.3</v>
+        <v>1210.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3891.7</v>
+        <v>789.9</v>
       </c>
       <c r="H5" t="n">
-        <v>4119.3</v>
+        <v>403.3</v>
       </c>
       <c r="I5" t="n">
-        <v>880.7</v>
+        <v>1596.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4074</v>
+        <v>1466.1</v>
       </c>
       <c r="K5" t="n">
-        <v>926</v>
+        <v>533.9</v>
       </c>
       <c r="L5" t="n">
-        <v>311.2</v>
+        <v>819.8</v>
       </c>
       <c r="M5" t="n">
-        <v>4688.8</v>
+        <v>1180.2</v>
       </c>
       <c r="N5" t="n">
-        <v>4197.3</v>
+        <v>301</v>
       </c>
       <c r="O5" t="n">
-        <v>802.7</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2665.6</v>
+        <v>1380.6</v>
       </c>
       <c r="C6" t="n">
-        <v>2334.4</v>
+        <v>619.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1401.7</v>
+        <v>1919.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3598.3</v>
+        <v>80.8</v>
       </c>
       <c r="F6" t="n">
-        <v>4862.4</v>
+        <v>1481.5</v>
       </c>
       <c r="G6" t="n">
-        <v>137.6</v>
+        <v>518.5</v>
       </c>
       <c r="H6" t="n">
-        <v>675.3</v>
+        <v>56.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4324.7</v>
+        <v>1943.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2079.2</v>
+        <v>691.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2920.8</v>
+        <v>1308.7</v>
       </c>
       <c r="L6" t="n">
-        <v>3935.5</v>
+        <v>1230.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.5</v>
+        <v>769.2</v>
       </c>
       <c r="N6" t="n">
-        <v>360.9</v>
+        <v>1230.6</v>
       </c>
       <c r="O6" t="n">
-        <v>4639.1</v>
+        <v>769.4</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1879.9</v>
+        <v>1665.3</v>
       </c>
       <c r="C7" t="n">
-        <v>3120.1</v>
+        <v>334.7</v>
       </c>
       <c r="D7" t="n">
-        <v>425</v>
+        <v>1459.8</v>
       </c>
       <c r="E7" t="n">
-        <v>4575</v>
+        <v>540.2</v>
       </c>
       <c r="F7" t="n">
-        <v>4462.8</v>
+        <v>708.3</v>
       </c>
       <c r="G7" t="n">
-        <v>537.2</v>
+        <v>1291.7</v>
       </c>
       <c r="H7" t="n">
-        <v>4246.4</v>
+        <v>1530.4</v>
       </c>
       <c r="I7" t="n">
-        <v>753.6</v>
+        <v>469.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1521</v>
+        <v>9.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3479</v>
+        <v>1990.1</v>
       </c>
       <c r="L7" t="n">
-        <v>518.8</v>
+        <v>1363.3</v>
       </c>
       <c r="M7" t="n">
-        <v>4481.2</v>
+        <v>636.7</v>
       </c>
       <c r="N7" t="n">
-        <v>1668.7</v>
+        <v>1766.4</v>
       </c>
       <c r="O7" t="n">
-        <v>3331.3</v>
+        <v>233.6</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1809.8</v>
+        <v>1597.9</v>
       </c>
       <c r="C8" t="n">
-        <v>3190.2</v>
+        <v>402.1</v>
       </c>
       <c r="D8" t="n">
-        <v>1601.5</v>
+        <v>752.9</v>
       </c>
       <c r="E8" t="n">
-        <v>3398.5</v>
+        <v>1247.1</v>
       </c>
       <c r="F8" t="n">
-        <v>4294.9</v>
+        <v>1094</v>
       </c>
       <c r="G8" t="n">
-        <v>705.1</v>
+        <v>906</v>
       </c>
       <c r="H8" t="n">
-        <v>3012.3</v>
+        <v>1058.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1987.7</v>
+        <v>941.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3795.9</v>
+        <v>1826.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1204.1</v>
+        <v>173.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2346.6</v>
+        <v>1039.1</v>
       </c>
       <c r="M8" t="n">
-        <v>2653.4</v>
+        <v>960.9</v>
       </c>
       <c r="N8" t="n">
-        <v>2109</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>2891</v>
+        <v>1924.6</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="D9" t="n">
-        <v>389.6</v>
+        <v>155.8</v>
       </c>
       <c r="E9" t="n">
-        <v>4610.4</v>
+        <v>1844.2</v>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2200</v>
+        <v>881.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2800</v>
+        <v>1118.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4230</v>
+        <v>1690.4</v>
       </c>
       <c r="K9" t="n">
-        <v>770</v>
+        <v>309.6</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="n">
-        <v>855</v>
+        <v>342</v>
       </c>
       <c r="O9" t="n">
-        <v>4145</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="D10" t="n">
-        <v>389.6</v>
+        <v>155.8</v>
       </c>
       <c r="E10" t="n">
-        <v>4610.4</v>
+        <v>1844.2</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2200</v>
+        <v>881.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2800</v>
+        <v>1118.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4230</v>
+        <v>1690.4</v>
       </c>
       <c r="K10" t="n">
-        <v>770</v>
+        <v>309.6</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N10" t="n">
-        <v>855</v>
+        <v>342</v>
       </c>
       <c r="O10" t="n">
-        <v>4145</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
